--- a/Running projects/Gul Ahmed Energy Limited/VO/04- variation order for wall mountd indoor unit.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/04- variation order for wall mountd indoor unit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D36F6D4-E11A-4E98-8661-32A59FAB4160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C9E34-0980-4C52-9A9B-BC302795FE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
